--- a/datasets/TOURISMeurorevisedAugust2016WEB.xlsx
+++ b/datasets/TOURISMeurorevisedAugust2016WEB.xlsx
@@ -20,6 +20,7 @@
     <sheet name="E1" sheetId="6" r:id="rId6"/>
     <sheet name="E2" sheetId="7" r:id="rId7"/>
     <sheet name="Dashboard" sheetId="8" r:id="rId8"/>
+    <sheet name="Dashboard V2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'C'!$A$1:$AF$56</definedName>
@@ -6067,6 +6068,15 @@
                 <c:pt idx="5">
                   <c:v>-5.2096751109202897</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.985376255497529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.034681954443005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-14.790798035535666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6248,6 +6258,596 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="377493888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E2'!$X$4:$Y$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'E2'!$Y$7:$Y$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>755.73391274001085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>692.52022414336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>728.21823786498317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>734.20921478827108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>764.26709404881319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>885.99958878739085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>840.96589392133706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>869.17772443554873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>863.60871770291328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>863.54247958229234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>798.61180387735249</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>767.93240108730686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A76-4AD0-AA37-0CBEF5578C9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E2'!$Z$4:$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'E2'!$AA$7:$AA$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>679.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>609.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>667.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>647.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>706.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>768.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>825.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>914.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>889.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>835.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>757.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>671.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A76-4AD0-AA37-0CBEF5578C9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E2'!$AB$4:$AC$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'E2'!$AC$7:$AC$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>598.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>570.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>590.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>611.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>670.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>734.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>776.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>758.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A76-4AD0-AA37-0CBEF5578C9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="280500128"/>
+        <c:axId val="280500960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="280500128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280500960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="280500960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Capital Expenditure by month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280500128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6568,6 +7168,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10144,6 +10784,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10353,6 +11496,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39959,8 +41137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AB19:AC19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -40404,7 +41582,7 @@
         <v>679.2</v>
       </c>
       <c r="AB7" s="67">
-        <f t="shared" ref="AB7:AB12" si="10">AC7*0.585274</f>
+        <f t="shared" ref="AB7:AB15" si="10">AC7*0.585274</f>
         <v>350.22210885999999</v>
       </c>
       <c r="AC7" s="87">
@@ -40459,7 +41637,7 @@
         <v>-10.127097838249343</v>
       </c>
       <c r="AP7" s="81">
-        <f t="shared" ref="AP7:AP12" si="16">(AC7-AA7)/AA7*100</f>
+        <f t="shared" ref="AP7:AP15" si="16">(AC7-AA7)/AA7*100</f>
         <v>-11.897820965842175</v>
       </c>
     </row>
@@ -41333,8 +42511,13 @@
       <c r="AA13" s="87">
         <v>825.37</v>
       </c>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="87"/>
+      <c r="AB13" s="67">
+        <f t="shared" si="10"/>
+        <v>430.00080780000002</v>
+      </c>
+      <c r="AC13" s="87">
+        <v>734.7</v>
+      </c>
       <c r="AD13" s="81">
         <f t="shared" si="20"/>
         <v>-7.8355249426007134</v>
@@ -41383,7 +42566,10 @@
         <f t="shared" si="15"/>
         <v>-1.8545215726425015</v>
       </c>
-      <c r="AP13" s="81"/>
+      <c r="AP13" s="81">
+        <f t="shared" si="16"/>
+        <v>-10.985376255497529</v>
+      </c>
     </row>
     <row r="14" spans="1:42" s="10" customFormat="1" ht="15">
       <c r="A14" s="59" t="s">
@@ -41480,8 +42666,13 @@
       <c r="AA14" s="87">
         <v>914.02</v>
       </c>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="87"/>
+      <c r="AB14" s="67">
+        <f t="shared" si="10"/>
+        <v>454.5237884</v>
+      </c>
+      <c r="AC14" s="87">
+        <v>776.6</v>
+      </c>
       <c r="AD14" s="81">
         <f t="shared" si="20"/>
         <v>-4.7087541093328644</v>
@@ -41530,7 +42721,10 @@
         <f t="shared" si="15"/>
         <v>5.1591606991046861</v>
       </c>
-      <c r="AP14" s="81"/>
+      <c r="AP14" s="81">
+        <f t="shared" si="16"/>
+        <v>-15.034681954443005</v>
+      </c>
     </row>
     <row r="15" spans="1:42" s="10" customFormat="1" ht="15">
       <c r="A15" s="59" t="s">
@@ -41627,8 +42821,13 @@
       <c r="AA15" s="87">
         <v>889.81</v>
       </c>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="87"/>
+      <c r="AB15" s="67">
+        <f t="shared" si="10"/>
+        <v>443.75474680000002</v>
+      </c>
+      <c r="AC15" s="87">
+        <v>758.2</v>
+      </c>
       <c r="AD15" s="81">
         <f t="shared" si="20"/>
         <v>-0.30641325076603459</v>
@@ -41677,7 +42876,10 @@
         <f t="shared" si="15"/>
         <v>3.0339298064033748</v>
       </c>
-      <c r="AP15" s="81"/>
+      <c r="AP15" s="81">
+        <f t="shared" si="16"/>
+        <v>-14.790798035535666</v>
+      </c>
     </row>
     <row r="16" spans="1:42" s="10" customFormat="1" ht="15">
       <c r="A16" s="59" t="s">
@@ -42230,11 +43432,11 @@
       </c>
       <c r="AB19" s="89">
         <f>AVERAGE(AB7:AB18)</f>
-        <v>367.72472782999995</v>
+        <v>392.73641221999998</v>
       </c>
       <c r="AC19" s="89">
         <f>AVERAGE(AC7:AC18)</f>
-        <v>628.29499999999996</v>
+        <v>671.03</v>
       </c>
       <c r="AD19" s="254">
         <f>(D19-B19)/B19*100</f>
@@ -44703,7 +45905,7 @@
     <brk id="29" max="1048575" man="1"/>
   </colBreaks>
   <ignoredErrors>
-    <ignoredError sqref="AD7:AP10 AB7:AC10 B19 B23:B34 Z19:AA19 AA23:AA34 C7:Z18 C20:Z34 C19:Y19 AB13:AC18 AB11:AB12 AB27:AC27 AD11:AP11 AD27:AO27 AD30:AP34 AD28:AO28 AD13:AO26 AD12:AO12 AB28:AC28 AD29:AO29 AP13:AP26 AP29 AP27 AP12 AP28 AB20:AC26" unlockedFormula="1"/>
+    <ignoredError sqref="AD7:AP10 AB7:AC10 B19 B23:B34 Z19:AA19 AA23:AA34 C7:Z18 C20:Z34 C19:Y19 AB16:AC18 AB11:AB12 AB27:AC27 AD11:AP11 AD27:AO27 AD30:AP34 AD28:AO28 AD13:AO26 AD12:AO12 AB28:AC28 AD29:AO29 AP16:AP26 AP29 AP27 AP12 AP28 AB20:AC26" unlockedFormula="1"/>
     <ignoredError sqref="T4:AA5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
@@ -44809,4 +46011,19 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>